--- a/datas/case.xlsx
+++ b/datas/case.xlsx
@@ -1774,7 +1774,7 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{"code": 0, "msg": "OK", "data": {"id": 1000524966, "reg_name": "bty", "mobile_phone": "13162803174"}, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code": 0, "msg": "OK", "data": {"id": 1000527079, "reg_name": "bty", "mobile_phone": "13594605378"}, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{"code": 0, "msg": "OK", "data": {"id": 10018244, "leave_amount": 20619804.42, "mobile_phone": "13262664317", "reg_name": "小柠檬", "reg_time": "2021-02-22 20:28:34.0", "type": 0}, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code": 0, "msg": "OK", "data": {"id": 10018244, "leave_amount": 42639607.83, "mobile_phone": "13262664317", "reg_name": "小柠檬", "reg_time": "2021-02-22 20:28:34.0", "type": 0}, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">

--- a/datas/case.xlsx
+++ b/datas/case.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7860" windowWidth="20490"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7860" windowWidth="20490"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -35,12 +36,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -53,16 +54,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +68,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -96,9 +89,16 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -112,8 +112,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,15 +128,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -145,29 +139,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,7 +161,37 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -204,13 +205,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,31 +319,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,79 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,18 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,13 +414,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,45 +440,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +462,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,6 +491,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -518,10 +519,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -530,16 +531,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
@@ -548,115 +549,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="20" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="20" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="24" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="7" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="17" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -664,10 +665,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1031,80 +1032,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="10.375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="24.75"/>
-    <col customWidth="1" max="5" min="5" style="4" width="18.25"/>
-    <col customWidth="1" max="6" min="6" style="4" width="70.25"/>
-    <col customWidth="1" max="7" min="7" style="4" width="26"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="24.75"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="70.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="26"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>res</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>注册成功-带注册名</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1114,17 +1115,17 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>{"code": 0,"msg": "OK"}</t>
         </is>
       </c>
-      <c r="H2" s="1" t="n"/>
+      <c r="H2" s="2" t="n"/>
       <c r="I2" s="7" t="inlineStr">
         <is>
           <t>T</t>
@@ -1137,20 +1138,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>注册成功-不带注册名</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1160,12 +1161,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>{"code": 0,"msg": "OK"}</t>
         </is>
@@ -1183,20 +1184,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>注册成功-不带类型和注册名</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1206,12 +1207,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>{"code": 0,"msg": "OK"}</t>
         </is>
@@ -1229,20 +1230,20 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>注册成功-不带类型</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1252,12 +1253,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>{"code": 0,"msg": "OK"}</t>
         </is>
@@ -1275,10 +1276,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1288,7 +1289,7 @@
           <t>注册成功-类型为0</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1298,12 +1299,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","type":0,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>{"code": 0,"msg": "OK"}</t>
         </is>
@@ -1321,10 +1322,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1334,7 +1335,7 @@
           <t>注册失败-不带手机号</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1344,12 +1345,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>{"pwd":"12345678","type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1363,10 +1364,10 @@
       <c r="J7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1376,7 +1377,7 @@
           <t>注册失败-不带密码</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1386,12 +1387,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1405,10 +1406,10 @@
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1418,7 +1419,7 @@
           <t>注册失败-手机号长度为10</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1428,12 +1429,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"1320134567","pwd":"12345678","type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1447,10 +1448,10 @@
       <c r="J9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1460,7 +1461,7 @@
           <t>注册失败-手机号长度为12</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1470,12 +1471,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"132013456711","pwd":"12345678","type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1489,10 +1490,10 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1502,7 +1503,7 @@
           <t>注册失败-手机号中存在非法字符</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1512,12 +1513,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"1326266341q","pwd":"12345678","type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1531,20 +1532,20 @@
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>注册失败-密码7位</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1554,12 +1555,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"1234567","type":1}</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1573,20 +1574,20 @@
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>注册失败-密码17位</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1596,12 +1597,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678901111111","type":1}</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1615,20 +1616,20 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>注册失败-注册名11位</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1638,12 +1639,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":"1234567890bty"}</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"用户昵称长度超过10位"}</t>
         </is>
@@ -1657,20 +1658,20 @@
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>注册失败-类型输入非0，1内容</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1680,12 +1681,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","type":2}</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1699,20 +1700,20 @@
       <c r="J15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>注册成功-注册名为null</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1722,12 +1723,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":null}</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>{"code": 0,"msg": "OK"}</t>
         </is>
@@ -1739,20 +1740,20 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>注册失败-类型为null</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1762,12 +1763,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"12345678","type":null,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1784,10 +1785,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1797,7 +1798,7 @@
           <t>注册失败-手机号为null</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1807,12 +1808,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":null,"pwd":"12345678","type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1824,10 +1825,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -1837,7 +1838,7 @@
           <t>注册失败-密码为null</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1847,12 +1848,12 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":null,"type":1,"reg_name":"bty"}</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1903,66 +1904,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="10.375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="22.375"/>
-    <col customWidth="1" max="5" min="5" style="4" width="14.875"/>
-    <col customWidth="1" max="6" min="6" style="4" width="17.375"/>
-    <col customWidth="1" max="7" min="7" style="4" width="9.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="22.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="14.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>res</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" s="4">
+    <row customHeight="1" ht="40.5" r="2" s="1">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2002,7 +2003,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="3" s="4">
+    <row customHeight="1" ht="27" r="3" s="1">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -2042,7 +2043,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" s="4">
+    <row customHeight="1" ht="27" r="4" s="1">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -2082,7 +2083,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="5" s="4">
+    <row customHeight="1" ht="40.5" r="5" s="1">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -2122,7 +2123,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="6" s="4">
+    <row customHeight="1" ht="40.5" r="6" s="1">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2162,7 +2163,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="7" s="4">
+    <row customHeight="1" ht="40.5" r="7" s="1">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -2202,7 +2203,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="8" s="4">
+    <row customHeight="1" ht="40.5" r="8" s="1">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -2242,7 +2243,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="9" s="4">
+    <row customHeight="1" ht="40.5" r="9" s="1">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -2295,71 +2296,71 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.375"/>
-    <col customWidth="1" max="2" min="2" style="4" width="10.375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="22.375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="7.375"/>
-    <col customWidth="1" max="5" min="5" style="4" width="18.25"/>
-    <col customWidth="1" max="6" min="6" style="4" width="46"/>
-    <col customWidth="1" max="7" min="7" style="4" width="23.75"/>
-    <col customWidth="1" max="8" min="8" style="4" width="4.375"/>
-    <col customWidth="1" max="9" min="9" style="4" width="7.375"/>
-    <col customWidth="1" max="10" min="10" style="4" width="10.375"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="22.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="46"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="4.375"/>
+    <col customWidth="1" max="9" min="9" style="1" width="7.375"/>
+    <col customWidth="1" max="10" min="10" style="1" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>res</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
@@ -2379,7 +2380,7 @@
           <t>充值成功-金额为正整数</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2394,7 +2395,7 @@
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2422,7 +2423,7 @@
           <t>充值成功-金额为1位小数</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2437,7 +2438,7 @@
           <t>{"member_id": "#member_id#","amount":600.1}</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2465,7 +2466,7 @@
           <t>充值成功-金额为2位小数</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2480,7 +2481,7 @@
           <t>{"member_id": "#member_id#","amount":600.22}</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2508,7 +2509,7 @@
           <t>充值失败-金额为3位小数</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2523,7 +2524,7 @@
           <t>{"member_id": "#member_id#","amount":600.123}</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额小数超过两位"}</t>
         </is>
@@ -2553,7 +2554,7 @@
           <t>充值失败-金额为0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2568,7 +2569,7 @@
           <t>{"member_id": "#member_id#","amount":0}</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
         </is>
@@ -2598,7 +2599,7 @@
           <t>充值成功-金额499999.99</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2613,7 +2614,7 @@
           <t>{"member_id": "#member_id#","amount":499999.99}</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2641,7 +2642,7 @@
           <t>充值成功-金额50万整</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2656,7 +2657,7 @@
           <t>{"member_id": "#member_id#","amount":500000}</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2684,7 +2685,7 @@
           <t>充值成功-金额500000.0</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2699,7 +2700,7 @@
           <t>{"member_id": "#member_id#","amount":500000.0}</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2727,7 +2728,7 @@
           <t>充值成功-金额500000.00</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2742,7 +2743,7 @@
           <t>{"member_id": "#member_id#","amount":500000.00}</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2775,7 +2776,7 @@
           <t>充值失败-金额大于50万</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2790,7 +2791,7 @@
           <t>{"member_id": "#member_id#","amount":500000.01}</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
         </is>
@@ -2820,7 +2821,7 @@
           <t>充值失败-金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2835,7 +2836,7 @@
           <t>{"member_id": "#member_id#","amount":-100}</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
         </is>
@@ -2865,7 +2866,7 @@
           <t>充值失败-金额为字母</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2880,7 +2881,7 @@
           <t>{"member_id": "#member_id#","amount":"as"}</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
@@ -2910,7 +2911,7 @@
           <t>充值失败-金额为特殊字符</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2925,7 +2926,7 @@
           <t>{"member_id": "#member_id#","amount":"/"}</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
@@ -2955,7 +2956,7 @@
           <t>充值失败-id为空</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2970,7 +2971,7 @@
           <t>{"amount":600}</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"用户id为空"}</t>
         </is>
@@ -2995,7 +2996,7 @@
           <t>充值失败-id为小数</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -3010,7 +3011,7 @@
           <t>{"member_id": "#member_id#.0","amount":600}</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
@@ -3040,7 +3041,7 @@
           <t>充值失败-错误的id</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -3055,7 +3056,7 @@
           <t>{"member_id": "999999999","amount":600}</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"用户id错误"}</t>
         </is>
@@ -3068,6 +3069,793 @@
       <c r="I17" s="0" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" style="1" width="24.625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="53.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>res</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>提现成功-提现1元</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":1}</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>提现成功-提现小于50万元</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":111}</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>提现成功-提现1位小数</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":111.2}</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>提现成功-提现2位小数</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":111.22}</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>提现成功-提现499999</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":499999}</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>提现成功-提现50万</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":500000}</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "OK", "data": {"id": 10018244, "leave_amount": 42638940.98, "mobile_phone": "13262664317", "reg_name": "小柠檬", "reg_time": "2021-02-22 20:28:34.0", "type": 0}, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现0元</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":0}</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "OK", "data": {"id": 10018244, "leave_amount": 40638274.14, "mobile_phone": "13262664317", "reg_name": "小柠檬", "reg_time": "2021-02-22 20:28:34.0", "type": 0}, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现3位小数</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":499999.001}</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额小数超过两位"}</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "余额必须大于0并且小于或者等于5000000", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现500000.01</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":500000.01}</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "余额必须大于0并且小于或者等于5000000", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现负数</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":-100}</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "余额必须大于0并且小于或者等于5000000", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现非数字</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":"s"}</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "数值参数格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "数值参数格式不正确", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现金额大于剩余金额</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":"#amount#"}</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "余额必须大于0并且小于或者等于5000000", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现金额为空</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#"}</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "金额必须为数值型"}</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "余额为空", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现id为空</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "","amount":1}</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"会员id为空"}</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "数值参数格式不正确", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现id为小数</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#.0","amount":166}</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数值参数格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "会员不存在", "data": null, "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>提现</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>提现失败-提现id错误</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#111","amount":177}</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"会员不存在"}</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
